--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -72,9 +72,6 @@
     <t>AmadeusWS air oneway booking for DOMESTIC location for 1 Adult with Login</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
-  </si>
-  <si>
     <t>OneWay</t>
   </si>
   <si>
@@ -96,27 +93,9 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 Adult and 1 child with Login.</t>
-  </si>
-  <si>
     <t>JFK-LAS</t>
   </si>
   <si>
-    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 adult . 1 child and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>Search|SETFILTERS|AddToCart</t>
-  </si>
-  <si>
-    <t>airlines</t>
-  </si>
-  <si>
-    <t>AA/NK</t>
-  </si>
-  <si>
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult with Login.</t>
   </si>
   <si>
@@ -132,27 +111,6 @@
     <t>20-30</t>
   </si>
   <si>
-    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 child with Login.</t>
-  </si>
-  <si>
-    <t>stop|cabin</t>
-  </si>
-  <si>
-    <t>one|business</t>
-  </si>
-  <si>
-    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN</t>
-  </si>
-  <si>
-    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult. 1 child and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>DFW-LAS</t>
-  </si>
-  <si>
     <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 Adult with Login.</t>
   </si>
   <si>
@@ -165,46 +123,7 @@
     <t>53|64|71</t>
   </si>
   <si>
-    <t>AmadeusWS air MULTICITY booking for DOMESTIC location 1 Adult and 1 child with Login.</t>
-  </si>
-  <si>
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
-  </si>
-  <si>
-    <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 adult .1 child and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 Adult with Login.</t>
-  </si>
-  <si>
-    <t>JFK-PAR</t>
-  </si>
-  <si>
-    <t>AmadeusWS air oneway booking for INTERNATIONAL location 1 Adult and 1 child with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 adult and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 adult. 1 child and 1 infant with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air round trip booking for INTERNATIONAL location for 1 Adult with Login.</t>
-  </si>
-  <si>
-    <t>AmadeusWS air MULTICITY booking for INTERNATIONAL location for 1 Adult with Login.</t>
-  </si>
-  <si>
-    <t>SIN-BKK|BKK-SIN|SIN-HKG</t>
-  </si>
-  <si>
-    <t>12|20|22</t>
-  </si>
-  <si>
-    <t>Guest</t>
   </si>
   <si>
     <t>RoviaBucks</t>
@@ -214,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,18 +153,6 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -268,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,17 +219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -382,19 +278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -424,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,10 +316,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -448,60 +334,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1055,25 +936,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1479,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q9" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
-  <autoFilter ref="A1:Q9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
@@ -1505,52 +1367,52 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q6" totalsRowShown="0">
-  <autoFilter ref="A1:Q6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="30"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="29"/>
-    <tableColumn id="3" name="TripType" dataDxfId="28"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="27"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="26"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
+    <tableColumn id="3" name="TripType" dataDxfId="29"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="28"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="27"/>
     <tableColumn id="6" name="Adults"/>
     <tableColumn id="7" name="Infants"/>
     <tableColumn id="8" name="Children"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="26"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="25"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="24"/>
     <tableColumn id="12" name="AirLines"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="22"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="21"/>
-    <tableColumn id="15" name="UserType" dataDxfId="20"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="19"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="18"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
+    <tableColumn id="15" name="UserType" dataDxfId="21"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q6" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:Q6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="15"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
+    <tableColumn id="1" name="Description" dataDxfId="16"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
     <tableColumn id="3" name="TripType"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
-    <tableColumn id="6" name="Adults" dataDxfId="11"/>
-    <tableColumn id="7" name="Infants" dataDxfId="10"/>
-    <tableColumn id="8" name="Children" dataDxfId="9"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="14"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
+    <tableColumn id="6" name="Adults" dataDxfId="12"/>
+    <tableColumn id="7" name="Infants" dataDxfId="11"/>
+    <tableColumn id="8" name="Children" dataDxfId="10"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="15" name="UserType" dataDxfId="3"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1843,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1744,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1894,13 +1756,13 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1927,16 +1789,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -1947,360 +1809,27 @@
       <c r="H2" s="8">
         <v>0</v>
       </c>
-      <c r="I2" s="18" t="b">
+      <c r="I2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="18" t="b">
+        <v>21</v>
+      </c>
+      <c r="K2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="18">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="18">
-        <v>25</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="18">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="18">
-        <v>25</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="18">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="18">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="102" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="18">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2312,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,7 +1880,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -2363,13 +1892,13 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -2393,19 +1922,19 @@
     </row>
     <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="12">
         <v>1</v>
@@ -2416,223 +1945,31 @@
       <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="18" t="b">
+      <c r="I2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="17" t="b">
+        <v>21</v>
+      </c>
+      <c r="K2" s="14" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2644,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,74 +2007,74 @@
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -2748,215 +2085,27 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="18" t="b">
+      <c r="I2" s="15" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="17" t="b">
+        <v>21</v>
+      </c>
+      <c r="K2" s="14" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="7"/>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
+      <c r="Q2" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -127,13 +127,16 @@
   </si>
   <si>
     <t>RoviaBucks</t>
+  </si>
+  <si>
+    <t>Guest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,16 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -303,11 +316,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,30 +383,17 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -936,6 +947,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1341,8 +1371,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
@@ -1371,48 +1401,48 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="30"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="3" name="TripType" dataDxfId="29"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="28"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="27"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="29"/>
+    <tableColumn id="3" name="TripType" dataDxfId="28"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="27"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="26"/>
     <tableColumn id="6" name="Adults"/>
     <tableColumn id="7" name="Infants"/>
     <tableColumn id="8" name="Children"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="26"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="25"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="24"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
     <tableColumn id="12" name="AirLines"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
-    <tableColumn id="15" name="UserType" dataDxfId="21"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="22"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="21"/>
+    <tableColumn id="15" name="UserType" dataDxfId="20"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="19"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="1" name="Description" dataDxfId="15"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
     <tableColumn id="3" name="TripType"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="14"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
-    <tableColumn id="6" name="Adults" dataDxfId="12"/>
-    <tableColumn id="7" name="Infants" dataDxfId="11"/>
-    <tableColumn id="8" name="Children" dataDxfId="10"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
+    <tableColumn id="6" name="Adults" dataDxfId="11"/>
+    <tableColumn id="7" name="Infants" dataDxfId="10"/>
+    <tableColumn id="8" name="Children" dataDxfId="9"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1705,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,6 +1860,53 @@
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1983,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -117,12 +117,6 @@
     <t>MultiCity</t>
   </si>
   <si>
-    <t>LAS-LAX|LAX-DFW|DFW-MIA</t>
-  </si>
-  <si>
-    <t>53|64|71</t>
-  </si>
-  <si>
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>Guest</t>
+  </si>
+  <si>
+    <t>LAS-LAX|LAX-DFW|DFW-MIA|MIA-DEL</t>
+  </si>
+  <si>
+    <t>53|64|71|80</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1423,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="15"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
@@ -1737,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
@@ -1866,7 +1866,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>18</v>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
@@ -2002,7 +2002,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
@@ -2058,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,16 +2142,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -2183,6 +2183,53 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Description</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>RoviaBucks</t>
-  </si>
-  <si>
-    <t>Guest</t>
   </si>
   <si>
     <t>LAS-LAX|LAX-DFW|DFW-MIA|MIA-DEL</t>
@@ -136,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +153,6 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -188,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,22 +303,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,12 +359,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,8 +1341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
-  <autoFilter ref="A1:Q3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
@@ -1423,8 +1393,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:Q3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="15"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
@@ -1735,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,53 +1830,6 @@
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2058,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,10 +2071,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -2183,53 +2106,6 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -117,10 +117,19 @@
     <t>MultiCity</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
-  </si>
-  <si>
     <t>RoviaBucks</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 Adult with Guest Login</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Search|AddToCart</t>
   </si>
   <si>
     <t>LAS-LAX|LAX-DFW|DFW-MIA|MIA-DEL</t>
@@ -133,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +162,16 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -303,11 +322,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,6 +389,12 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,8 +1377,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
@@ -1393,8 +1429,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:Q2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="15"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
@@ -1705,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -1820,7 +1856,7 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>23</v>
@@ -1830,6 +1866,53 @@
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,7 +1927,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,7 +2008,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
@@ -1981,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,16 +2148,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -2106,6 +2189,53 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t>Description</t>
   </si>
@@ -120,9 +120,6 @@
     <t>RoviaBucks</t>
   </si>
   <si>
-    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 Adult with Guest Login</t>
-  </si>
-  <si>
     <t>Guest</t>
   </si>
   <si>
@@ -133,13 +130,73 @@
   </si>
   <si>
     <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 Adult and 1 child with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for DOMESTIC location for 1 adult . 1 child and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
+    <t>AA/NK</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 Adult with Login.</t>
+  </si>
+  <si>
+    <t>JFK-PAR</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for INTERNATIONAL location 1 Adult and 1 child with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 adult and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 adult. 1 child and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 child with Login.</t>
+  </si>
+  <si>
+    <t>stop|cabin</t>
+  </si>
+  <si>
+    <t>one|business</t>
+  </si>
+  <si>
+    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
+  </si>
+  <si>
+    <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult. 1 child and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>DFW-LAS</t>
+  </si>
+  <si>
+    <t>AmadeusWS air MULTICITY booking for DOMESTIC location 1 Adult and 1 child with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 adult .1 child and 1 infant with Login.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +216,6 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -191,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -330,11 +377,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -386,34 +461,23 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -967,6 +1031,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1372,8 +1453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
-  <autoFilter ref="A1:Q3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
     <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
@@ -1402,48 +1483,48 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="30"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="0"/>
-    <tableColumn id="3" name="TripType" dataDxfId="29"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="28"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="27"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="29"/>
+    <tableColumn id="3" name="TripType" dataDxfId="28"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="27"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="26"/>
     <tableColumn id="6" name="Adults"/>
     <tableColumn id="7" name="Infants"/>
     <tableColumn id="8" name="Children"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="26"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="25"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="24"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
     <tableColumn id="12" name="AirLines"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="23"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="22"/>
-    <tableColumn id="15" name="UserType" dataDxfId="21"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="20"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="19"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="22"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="21"/>
+    <tableColumn id="15" name="UserType" dataDxfId="20"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="19"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A1:Q3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="16"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="15"/>
+    <tableColumn id="1" name="Description" dataDxfId="15"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
     <tableColumn id="3" name="TripType"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="14"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="13"/>
-    <tableColumn id="6" name="Adults" dataDxfId="12"/>
-    <tableColumn id="7" name="Infants" dataDxfId="11"/>
-    <tableColumn id="8" name="Children" dataDxfId="10"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="9"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="8"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="7"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="6"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="5"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="15" name="UserType" dataDxfId="3"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="2"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="1"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
+    <tableColumn id="6" name="Adults" dataDxfId="11"/>
+    <tableColumn id="7" name="Infants" dataDxfId="10"/>
+    <tableColumn id="8" name="Children" dataDxfId="9"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1736,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -1862,52 +1943,338 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15" t="b">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8"/>
+      <c r="K3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12"/>
       <c r="M3" s="10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="15">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="15">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="15">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1919,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2370,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
@@ -2048,6 +2415,151 @@
       <c r="Q2" s="18" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,16 +2655,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -2185,22 +2697,22 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
@@ -2208,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="15" t="b">
         <v>0</v>
@@ -2216,12 +2728,12 @@
       <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="b">
+      <c r="K3" s="14" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>23</v>
@@ -2229,8 +2741,102 @@
       <c r="O3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -174,9 +174,6 @@
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
   </si>
   <si>
-    <t>Search|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO|PAYNOW</t>
-  </si>
-  <si>
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult. 1 child and 1 infant with Login.</t>
   </si>
   <si>
@@ -190,6 +187,18 @@
   </si>
   <si>
     <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 adult .1 child and 1 infant with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air round trip booking for INTERNATIONAL location for 1 Adult with Login.</t>
+  </si>
+  <si>
+    <t>AmadeusWS air MULTICITY booking for INTERNATIONAL location for 1 Adult with Login.</t>
+  </si>
+  <si>
+    <t>SIN-BKK|BKK-SIN|SIN-HKG</t>
+  </si>
+  <si>
+    <t>12|20|22</t>
   </si>
 </sst>
 </file>
@@ -1819,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>27</v>
@@ -2516,7 +2525,7 @@
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>37</v>
@@ -2525,7 +2534,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>28</v>
@@ -2560,6 +2569,53 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2755,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>37</v>
@@ -2746,7 +2802,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
@@ -2793,7 +2849,7 @@
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>37</v>
@@ -2837,6 +2893,53 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2647,7 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
@@ -2737,9 +2737,7 @@
       <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="K2" s="14"/>
       <c r="L2" s="7"/>
       <c r="M2" s="10" t="s">
         <v>22</v>
@@ -2784,9 +2782,7 @@
       <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="K3" s="14"/>
       <c r="L3" s="8"/>
       <c r="M3" s="10" t="s">
         <v>33</v>
@@ -2831,9 +2827,7 @@
       <c r="J4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="K4" s="14"/>
       <c r="L4" s="7"/>
       <c r="M4" s="10" t="s">
         <v>22</v>
@@ -2878,9 +2872,7 @@
       <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="K5" s="14"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>22</v>
@@ -2925,9 +2917,7 @@
       <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="14" t="b">
-        <v>0</v>
-      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="7"/>
       <c r="M6" s="10" t="s">
         <v>22</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,12 +2731,8 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="14"/>
       <c r="L2" s="7"/>
       <c r="M2" s="10" t="s">

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -105,12 +105,6 @@
     <t>25|32</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>20-30</t>
-  </si>
-  <si>
     <t>AmadeusWS air MULTICITY booking for DOMESTIC location for 1 Adult with Login.</t>
   </si>
   <si>
@@ -141,12 +135,6 @@
     <t>AmadeusWS air oneway booking for DOMESTIC location for 1 adult . 1 child and 1 infant with Login.</t>
   </si>
   <si>
-    <t>airlines</t>
-  </si>
-  <si>
-    <t>AA/NK</t>
-  </si>
-  <si>
     <t>AmadeusWS air oneway booking for INTERNATIONAL location for 1 Adult with Login.</t>
   </si>
   <si>
@@ -168,9 +156,6 @@
     <t>stop|cabin</t>
   </si>
   <si>
-    <t>one|business</t>
-  </si>
-  <si>
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
   </si>
   <si>
@@ -199,6 +184,42 @@
   </si>
   <si>
     <t>12|20|22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airlines </t>
+  </si>
+  <si>
+    <t>Cabin</t>
+  </si>
+  <si>
+    <t>business/Economy</t>
+  </si>
+  <si>
+    <t>price|duration</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>20-30|18</t>
+  </si>
+  <si>
+    <t>american airlines/us airways/united airlines</t>
+  </si>
+  <si>
+    <t>Search|setfilters|AddToCart</t>
+  </si>
+  <si>
+    <t>Business/Economy</t>
+  </si>
+  <si>
+    <t>Search|setfilters|addtocart</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>one|business/Economy</t>
   </si>
 </sst>
 </file>
@@ -418,12 +439,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -458,9 +476,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +547,59 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -1102,42 +1170,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1357,25 +1389,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1466,22 +1479,22 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
-    <tableColumn id="3" name="TripType" dataDxfId="45"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="44"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="43"/>
-    <tableColumn id="6" name="Adults" dataDxfId="42"/>
-    <tableColumn id="7" name="Infants" dataDxfId="41"/>
-    <tableColumn id="8" name="Children" dataDxfId="40"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="39"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="38"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="37"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="36"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="35"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="34"/>
-    <tableColumn id="15" name="UserType" dataDxfId="33"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="32"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="31"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
+    <tableColumn id="3" name="TripType" dataDxfId="46"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="45"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="44"/>
+    <tableColumn id="6" name="Adults" dataDxfId="43"/>
+    <tableColumn id="7" name="Infants" dataDxfId="42"/>
+    <tableColumn id="8" name="Children" dataDxfId="41"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="40"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="39"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="38"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="37"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="36"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="35"/>
+    <tableColumn id="15" name="UserType" dataDxfId="34"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1491,49 +1504,49 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="30"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="29"/>
-    <tableColumn id="3" name="TripType" dataDxfId="28"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="27"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="26"/>
+    <tableColumn id="1" name="Description" dataDxfId="33"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
+    <tableColumn id="3" name="TripType" dataDxfId="31"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="30"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="29"/>
     <tableColumn id="6" name="Adults"/>
     <tableColumn id="7" name="Infants"/>
     <tableColumn id="8" name="Children"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="28"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="27"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="26"/>
     <tableColumn id="12" name="AirLines"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="22"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="21"/>
-    <tableColumn id="15" name="UserType" dataDxfId="20"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="19"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="18"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="25"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="24"/>
+    <tableColumn id="15" name="UserType" dataDxfId="23"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="15"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
+    <tableColumn id="1" name="Description" dataDxfId="18"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="17"/>
     <tableColumn id="3" name="TripType"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
-    <tableColumn id="6" name="Adults" dataDxfId="11"/>
-    <tableColumn id="7" name="Infants" dataDxfId="10"/>
-    <tableColumn id="8" name="Children" dataDxfId="9"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
-    <tableColumn id="15" name="UserType" dataDxfId="2"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="16"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="15"/>
+    <tableColumn id="6" name="Adults" dataDxfId="14"/>
+    <tableColumn id="7" name="Infants" dataDxfId="13"/>
+    <tableColumn id="8" name="Children" dataDxfId="12"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="11"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="10"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="9"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="8"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="7"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="6"/>
+    <tableColumn id="15" name="UserType" dataDxfId="5"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="4"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1828,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,437 +1866,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>25</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="18"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>25</v>
       </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="10" t="s">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>25</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
         <v>25</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="14">
         <v>25</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="10" t="s">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="14">
         <v>25</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10" t="s">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14">
         <v>25</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10" t="s">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,305 +2316,305 @@
     <col min="13" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="10" t="s">
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>30</v>
+      <c r="P2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="10" t="s">
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>50</v>
+      <c r="P3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="18"/>
+      <c r="O4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2629,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2653,279 +2652,279 @@
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="10" t="s">
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="18"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="18"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="A5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="A6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="s">
+      <c r="K6" s="13"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -153,9 +153,6 @@
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 child with Login.</t>
   </si>
   <si>
-    <t>stop|cabin</t>
-  </si>
-  <si>
     <t>AmadeusWS air round trip booking for DOMESTIC location for 1 adult and 1 infant with Login.</t>
   </si>
   <si>
@@ -219,7 +216,7 @@
     <t>matrix</t>
   </si>
   <si>
-    <t>one|business/Economy</t>
+    <t>cabin</t>
   </si>
 </sst>
 </file>
@@ -547,59 +544,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -1170,6 +1114,42 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1403,6 +1383,23 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1479,22 +1476,22 @@
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Description" dataDxfId="47"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="2"/>
-    <tableColumn id="3" name="TripType" dataDxfId="46"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="45"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="44"/>
-    <tableColumn id="6" name="Adults" dataDxfId="43"/>
-    <tableColumn id="7" name="Infants" dataDxfId="42"/>
-    <tableColumn id="8" name="Children" dataDxfId="41"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="40"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="39"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="38"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="37"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="36"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="35"/>
-    <tableColumn id="15" name="UserType" dataDxfId="34"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="46"/>
+    <tableColumn id="3" name="TripType" dataDxfId="45"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="44"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="43"/>
+    <tableColumn id="6" name="Adults" dataDxfId="42"/>
+    <tableColumn id="7" name="Infants" dataDxfId="41"/>
+    <tableColumn id="8" name="Children" dataDxfId="40"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="39"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="38"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="37"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="36"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="35"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="34"/>
+    <tableColumn id="15" name="UserType" dataDxfId="33"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="32"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1504,49 +1501,49 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:Q2" totalsRowShown="0">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="33"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="32"/>
-    <tableColumn id="3" name="TripType" dataDxfId="31"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="30"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="29"/>
+    <tableColumn id="1" name="Description" dataDxfId="30"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="29"/>
+    <tableColumn id="3" name="TripType" dataDxfId="28"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="27"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="26"/>
     <tableColumn id="6" name="Adults"/>
     <tableColumn id="7" name="Infants"/>
     <tableColumn id="8" name="Children"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="28"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="27"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="26"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="25"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="24"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="23"/>
     <tableColumn id="12" name="AirLines"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="25"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="24"/>
-    <tableColumn id="15" name="UserType" dataDxfId="23"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="22"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="21"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="22"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="21"/>
+    <tableColumn id="15" name="UserType" dataDxfId="20"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="19"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q2" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:Q2"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Description" dataDxfId="18"/>
-    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="17"/>
+    <tableColumn id="1" name="Description" dataDxfId="15"/>
+    <tableColumn id="2" name="ExecutionPipeline" dataDxfId="14"/>
     <tableColumn id="3" name="TripType"/>
-    <tableColumn id="4" name="AirPortPairs" dataDxfId="16"/>
-    <tableColumn id="5" name="TravelDates" dataDxfId="15"/>
-    <tableColumn id="6" name="Adults" dataDxfId="14"/>
-    <tableColumn id="7" name="Infants" dataDxfId="13"/>
-    <tableColumn id="8" name="Children" dataDxfId="12"/>
-    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="11"/>
-    <tableColumn id="10" name="CabinType" dataDxfId="10"/>
-    <tableColumn id="11" name="NonStopFlight" dataDxfId="9"/>
-    <tableColumn id="12" name="AirLines" dataDxfId="8"/>
-    <tableColumn id="13" name="PaymentMode" dataDxfId="7"/>
-    <tableColumn id="14" name="Supplier" dataDxfId="6"/>
-    <tableColumn id="15" name="UserType" dataDxfId="5"/>
-    <tableColumn id="16" name="PostFilters" dataDxfId="4"/>
-    <tableColumn id="17" name="PostFiltersValues" dataDxfId="3"/>
+    <tableColumn id="4" name="AirPortPairs" dataDxfId="13"/>
+    <tableColumn id="5" name="TravelDates" dataDxfId="12"/>
+    <tableColumn id="6" name="Adults" dataDxfId="11"/>
+    <tableColumn id="7" name="Infants" dataDxfId="10"/>
+    <tableColumn id="8" name="Children" dataDxfId="9"/>
+    <tableColumn id="9" name="IncludeNearByAirPorts" dataDxfId="8"/>
+    <tableColumn id="10" name="CabinType" dataDxfId="7"/>
+    <tableColumn id="11" name="NonStopFlight" dataDxfId="6"/>
+    <tableColumn id="12" name="AirLines" dataDxfId="5"/>
+    <tableColumn id="13" name="PaymentMode" dataDxfId="4"/>
+    <tableColumn id="14" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="15" name="UserType" dataDxfId="2"/>
+    <tableColumn id="16" name="PostFilters" dataDxfId="1"/>
+    <tableColumn id="17" name="PostFiltersValues" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1923,7 +1920,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>
@@ -1961,10 +1958,10 @@
         <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,7 +2104,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
@@ -2145,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="16"/>
     </row>
@@ -2296,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2375,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>27</v>
@@ -2416,10 +2413,10 @@
         <v>24</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2424,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>27</v>
@@ -2465,18 +2462,18 @@
         <v>24</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>27</v>
@@ -2514,15 +2511,15 @@
         <v>32</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>35</v>
@@ -2531,7 +2528,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>28</v>
@@ -2563,15 +2560,15 @@
         <v>24</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>35</v>
@@ -2612,7 +2609,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="6"/>
     </row>
@@ -2748,7 +2745,7 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>35</v>
@@ -2793,7 +2790,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>35</v>
@@ -2838,7 +2835,7 @@
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -2892,10 +2889,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20700" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Air_Amadeus_OneWay" sheetId="1" r:id="rId1"/>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1856,7 @@
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" customWidth="1"/>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20700" windowHeight="10035"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
   <si>
     <t>Description</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>cabin</t>
+  </si>
+  <si>
+    <t>Search|setfilters|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
 </sst>
 </file>
@@ -1838,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1923,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>

--- a/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
+++ b/Rovia.UI.Automation.Tests/DataSheet/Air/Air_Amadeus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Search|setfilters|AddToCart</t>
   </si>
   <si>
-    <t>Business/Economy</t>
-  </si>
-  <si>
     <t>Search|setfilters|addtocart</t>
   </si>
   <si>
@@ -219,7 +216,7 @@
     <t>cabin</t>
   </si>
   <si>
-    <t>Search|setfilters|AddToCart|CHECKOUTTRIP|LOGIN|ENTERPAXINFO|CONFIRMPAXINFO</t>
+    <t>LOGIN|Search|AddToCart|CHECKOUTTRIP|ENTERPAXINFO|CONFIRMPAXINFO</t>
   </si>
 </sst>
 </file>
@@ -1841,9 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1923,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>18</v>
@@ -1960,19 +1955,15 @@
       <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
@@ -2017,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -2062,7 +2053,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>18</v>
@@ -2107,7 +2098,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
@@ -2145,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="16"/>
     </row>
@@ -2154,7 +2145,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
@@ -2199,7 +2190,7 @@
         <v>42</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -2244,7 +2235,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>18</v>
@@ -2296,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>57</v>
@@ -2525,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>27</v>
@@ -2574,7 +2565,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>27</v>
